--- a/sucess_score.xlsx
+++ b/sucess_score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadas/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA04CB1-885A-6449-8478-312711F0099E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B05259F-AFE5-0948-8BA3-78FC875E6ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{5A73FF6F-C923-E745-91F8-93D9F39B2A34}"/>
+    <workbookView xWindow="-28040" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{5A73FF6F-C923-E745-91F8-93D9F39B2A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,266 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>VQ#</t>
+  </si>
+  <si>
+    <t>VQ0001</t>
+  </si>
+  <si>
+    <t>VQ0002</t>
+  </si>
+  <si>
+    <t>VQ0003</t>
+  </si>
+  <si>
+    <t>VQ0004</t>
+  </si>
+  <si>
+    <t>VQ0005</t>
+  </si>
+  <si>
+    <t>VQ0006</t>
+  </si>
+  <si>
+    <t>VQ0007</t>
+  </si>
+  <si>
+    <t>VQ0008</t>
+  </si>
+  <si>
+    <t>VQ0009</t>
+  </si>
+  <si>
+    <t>VQ0010</t>
+  </si>
+  <si>
+    <t>VQ0011</t>
+  </si>
+  <si>
+    <t>VQ0012</t>
+  </si>
+  <si>
+    <t>VQ0013</t>
+  </si>
+  <si>
+    <t>VQ0014</t>
+  </si>
+  <si>
+    <t>VQ0015</t>
+  </si>
+  <si>
+    <t>VQ0016</t>
+  </si>
+  <si>
+    <t>VQ0017</t>
+  </si>
+  <si>
+    <t>VQ0018</t>
+  </si>
+  <si>
+    <t>VQ0019</t>
+  </si>
+  <si>
+    <t>VQ0020</t>
+  </si>
+  <si>
+    <t>VQ0021</t>
+  </si>
+  <si>
+    <t>VQ0022</t>
+  </si>
+  <si>
+    <t>VQ0023</t>
+  </si>
+  <si>
+    <t>VQ0024</t>
+  </si>
+  <si>
+    <t>VQ0025</t>
+  </si>
+  <si>
+    <t>VQ0026</t>
+  </si>
+  <si>
+    <t>VQ0027</t>
+  </si>
+  <si>
+    <t>VQ0028</t>
+  </si>
+  <si>
+    <t>VQ0029</t>
+  </si>
+  <si>
+    <t>VQ0030</t>
+  </si>
+  <si>
+    <t>VQ0031</t>
+  </si>
+  <si>
+    <t>VQ0032</t>
+  </si>
+  <si>
+    <t>VQ0033</t>
+  </si>
+  <si>
+    <t>VQ0034</t>
+  </si>
+  <si>
+    <t>VQ0035</t>
+  </si>
+  <si>
+    <t>VQ0036</t>
+  </si>
+  <si>
+    <t>VQ0037</t>
+  </si>
+  <si>
+    <t>VQ0038</t>
+  </si>
+  <si>
+    <t>VQ0039</t>
+  </si>
+  <si>
+    <t>VQ0040</t>
+  </si>
+  <si>
+    <t>VQ0041</t>
+  </si>
+  <si>
+    <t>VQ0042</t>
+  </si>
+  <si>
+    <t>VQ0043</t>
+  </si>
+  <si>
+    <t>VQ0044</t>
+  </si>
+  <si>
+    <t>VQ0045</t>
+  </si>
+  <si>
+    <t>VQ0046</t>
+  </si>
+  <si>
+    <t>VQ0047</t>
+  </si>
+  <si>
+    <t>VQ0048</t>
+  </si>
+  <si>
+    <t>VQ0049</t>
+  </si>
+  <si>
+    <t>VQ0050</t>
+  </si>
+  <si>
+    <t>VQ0051</t>
+  </si>
+  <si>
+    <t>VQ0052</t>
+  </si>
+  <si>
+    <t>VQ0053</t>
+  </si>
+  <si>
+    <t>VQ0054</t>
+  </si>
+  <si>
+    <t>VQ0055</t>
+  </si>
+  <si>
+    <t>VQ0056</t>
+  </si>
+  <si>
+    <t>VQ0057</t>
+  </si>
+  <si>
+    <t>VQ0058</t>
+  </si>
+  <si>
+    <t>VQ0059</t>
+  </si>
+  <si>
+    <t>VQ0060</t>
+  </si>
+  <si>
+    <t>VQ0061</t>
+  </si>
+  <si>
+    <t>VQ0062</t>
+  </si>
+  <si>
+    <t>VQ0063</t>
+  </si>
+  <si>
+    <t>VQ0064</t>
+  </si>
+  <si>
+    <t>VQ0065</t>
+  </si>
+  <si>
+    <t>VQ0066</t>
+  </si>
+  <si>
+    <t>VQ0067</t>
+  </si>
+  <si>
+    <t>VQ0068</t>
+  </si>
+  <si>
+    <t>VQ0069</t>
+  </si>
+  <si>
+    <t>VQ0070</t>
+  </si>
+  <si>
+    <t>VQ0071</t>
+  </si>
+  <si>
+    <t>VQ0072</t>
+  </si>
+  <si>
+    <t>VQ0073</t>
+  </si>
+  <si>
+    <t>VQ0074</t>
+  </si>
+  <si>
+    <t>VQ0075</t>
+  </si>
+  <si>
+    <t>VQ0076</t>
+  </si>
+  <si>
+    <t>VQ0077</t>
+  </si>
+  <si>
+    <t>VQ0078</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -66,8 +318,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +660,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EDB7DD-5167-3445-9E3F-18FC9D970817}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>